--- a/EVE游戏分析.xlsx
+++ b/EVE游戏分析.xlsx
@@ -1,26 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="技能学习系统" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>福地科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方 附</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,19 +72,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +378,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EVE游戏分析.xlsx
+++ b/EVE游戏分析.xlsx
@@ -4,24 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="技能学习系统" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>福地科技</t>
+    <t>第三方 附</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第三方 附</t>
+    <t>技能时间计算公式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每分钟技能点数=主属性+副属性/2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -390,8 +394,35 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -400,26 +431,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/EVE游戏分析.xlsx
+++ b/EVE游戏分析.xlsx
@@ -4,28 +4,100 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能学习系统" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="战斗无人机数据" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>第三方 附</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>技能时间计算公式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>每分钟技能点数=主属性+副属性/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型无人机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战锤I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热能伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金星I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦努基里I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热能抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透者I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -396,12 +468,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -413,17 +485,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B12"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
         <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>0.2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>0.1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3">
+        <v>0.35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <v>360</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>0.2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>0.1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>0.25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>380</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>0.4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>0.2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>0.2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>0.25</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>0.4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <v>0.1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>0.25</v>
+      </c>
+      <c r="U6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
